--- a/PurgatoryCalculations.xps.xlsx
+++ b/PurgatoryCalculations.xps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Purgatory\Purgatory-CE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48F56F0A-D505-4433-AA0A-0836ABE84D08}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F492DABD-76CE-49CE-9091-8333EEBFB805}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22080" windowHeight="9648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22080" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -639,11 +640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,715 +710,709 @@
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <f ca="1">RANDBETWEEN(5,50)</f>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">RANDBETWEEN(5,150)</f>
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D2" s="7">
         <f t="shared" ref="D2:D18" ca="1" si="0">RANDBETWEEN(50,100)/100</f>
-        <v>0.84</v>
+        <v>0.64</v>
       </c>
       <c r="E2">
         <f ca="1">((B2+C2)*(D2+1))</f>
-        <v>128.79999999999998</v>
+        <v>59.040000000000006</v>
       </c>
       <c r="G2" s="8">
         <f ca="1">RANDBETWEEN(5,50)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="9">
         <f ca="1">RANDBETWEEN(10,50)</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J2" s="10">
-        <f ca="1">((B2+C2)*(D2+1))-(G2+H2)</f>
-        <v>86.799999999999983</v>
+        <f t="shared" ref="J2:J18" ca="1" si="1">((B2+C2)*(D2+1))-(G2+H2)</f>
+        <v>4.0000000000006253E-2</v>
       </c>
       <c r="K2" s="11">
         <f ca="1">RANDBETWEEN(25,250)</f>
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="M2" s="2" t="b">
-        <f ca="1">J2&gt;(K2/2.4)</f>
-        <v>1</v>
+        <f t="shared" ref="M2:M18" ca="1" si="2">J2&gt;(K2/2.4)</f>
+        <v>0</v>
       </c>
       <c r="N2">
         <f ca="1">(E2*2)-(G2+H2)</f>
-        <v>215.59999999999997</v>
+        <v>59.080000000000013</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <f ca="1">RANDBETWEEN(5,50)</f>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6">
         <f ca="1">RANDBETWEEN(5,150)</f>
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E18" ca="1" si="1">((B3+C3)*(D3+1))</f>
-        <v>315.63</v>
+        <f t="shared" ref="E3:E18" ca="1" si="3">((B3+C3)*(D3+1))</f>
+        <v>230.09</v>
       </c>
       <c r="G3" s="8">
         <f ca="1">RANDBETWEEN(5,50)</f>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H3" s="9">
         <f ca="1">RANDBETWEEN(10,50)</f>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J3" s="10">
-        <f ca="1">((B3+C3)*(D3+1))-(G3+H3)</f>
-        <v>251.63</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>159.09</v>
       </c>
       <c r="K3" s="11">
         <f ca="1">RANDBETWEEN(25,250)</f>
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="M3" s="2" t="b">
-        <f ca="1">J3&gt;(K3/2.4)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="N3">
         <f ca="1">(E3*2)-(G3+H3)</f>
-        <v>567.26</v>
+        <v>389.18</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <f ca="1">RANDBETWEEN(5,50)</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6">
-        <f t="shared" ref="C4:C18" ca="1" si="2">RANDBETWEEN(5,150)</f>
-        <v>111</v>
+        <f t="shared" ref="C4:C18" ca="1" si="4">RANDBETWEEN(5,150)</f>
+        <v>57</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="E4">
+        <f t="shared" ca="1" si="3"/>
+        <v>122.24999999999999</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" ref="G4:G18" ca="1" si="5">RANDBETWEEN(5,50)</f>
+        <v>39</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H18" ca="1" si="6">RANDBETWEEN(10,50)</f>
+        <v>33</v>
+      </c>
+      <c r="J4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>230.45999999999998</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" ref="G4:G18" ca="1" si="3">RANDBETWEEN(5,50)</f>
-        <v>20</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" ref="H4:H18" ca="1" si="4">RANDBETWEEN(10,50)</f>
-        <v>47</v>
-      </c>
-      <c r="J4" s="10">
-        <f ca="1">((B4+C4)*(D4+1))-(G4+H4)</f>
-        <v>163.45999999999998</v>
+        <v>50.249999999999986</v>
       </c>
       <c r="K4" s="11">
-        <f t="shared" ref="K4:K18" ca="1" si="5">RANDBETWEEN(25,250)</f>
-        <v>88</v>
+        <f t="shared" ref="K4:K18" ca="1" si="7">RANDBETWEEN(25,250)</f>
+        <v>229</v>
       </c>
       <c r="M4" s="2" t="b">
-        <f ca="1">J4&gt;(K4/2.4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="N4">
         <f ca="1">(E4*2)-(G4+H4)</f>
-        <v>393.91999999999996</v>
+        <v>172.49999999999997</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <f ca="1">RANDBETWEEN(5,50)</f>
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="E5">
+        <f t="shared" ca="1" si="3"/>
+        <v>142.35</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="J5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>228.6</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="H5" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="J5" s="10">
-        <f ca="1">((B5+C5)*(D5+1))-(G5+H5)</f>
-        <v>180.6</v>
+        <v>77.349999999999994</v>
       </c>
       <c r="K5" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>203</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>113</v>
       </c>
       <c r="M5" s="2" t="b">
-        <f ca="1">J5&gt;(K5/2.4)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="N5">
         <f ca="1">(E5*2)-(G5+H5)</f>
-        <v>409.2</v>
+        <v>219.7</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <f ca="1">RANDBETWEEN(5,50)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96</v>
+        <v>0.65</v>
       </c>
       <c r="E6">
+        <f t="shared" ca="1" si="3"/>
+        <v>105.6</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="J6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>270.48</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="J6" s="10">
-        <f ca="1">((B6+C6)*(D6+1))-(G6+H6)</f>
-        <v>194.48000000000002</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="K6" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>142</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>81</v>
       </c>
       <c r="M6" s="2" t="b">
-        <f ca="1">J6&gt;(K6/2.4)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N3:N18" ca="1" si="6">(E6*2)-(G6+H6)</f>
-        <v>464.96000000000004</v>
+        <f t="shared" ref="N6:N18" ca="1" si="8">(E6*2)-(G6+H6)</f>
+        <v>174.2</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
-        <f t="shared" ref="B7:B18" ca="1" si="7">RANDBETWEEN(5,50)</f>
-        <v>5</v>
+        <f t="shared" ref="B7:B18" ca="1" si="9">RANDBETWEEN(5,50)</f>
+        <v>12</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>128</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E7">
+        <f t="shared" ca="1" si="3"/>
+        <v>218.4</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="J7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>39.82</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="H7" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="J7" s="10">
-        <f ca="1">((B7+C7)*(D7+1))-(G7+H7)</f>
-        <v>-23.18</v>
+        <v>138.4</v>
       </c>
       <c r="K7" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>25</v>
       </c>
       <c r="M7" s="2" t="b">
-        <f ca="1">J7&gt;(K7/2.4)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="N7">
-        <f t="shared" ca="1" si="6"/>
-        <v>16.64</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>356.8</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>149</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="E8">
+        <f t="shared" ca="1" si="3"/>
+        <v>266.76</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="J8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>286.88</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="J8" s="10">
-        <f ca="1">((B8+C8)*(D8+1))-(G8+H8)</f>
-        <v>241.88</v>
+        <v>199.76</v>
       </c>
       <c r="K8" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>238</v>
       </c>
       <c r="M8" s="2" t="b">
-        <f ca="1">J8&gt;(K8/2.4)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="N8">
-        <f t="shared" ca="1" si="6"/>
-        <v>528.76</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>466.52</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>104</v>
       </c>
       <c r="D9" s="7">
         <f ca="1">RANDBETWEEN(50,100)/100</f>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
+        <f t="shared" ca="1" si="3"/>
+        <v>239.7</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="J9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>154.80000000000001</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="J9" s="10">
-        <f ca="1">((B9+C9)*(D9+1))-(G9+H9)</f>
-        <v>106.80000000000001</v>
+        <v>195.7</v>
       </c>
       <c r="K9" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>121</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>97</v>
       </c>
       <c r="M9" s="2" t="b">
-        <f ca="1">J9&gt;(K9/2.4)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="N9">
-        <f t="shared" ca="1" si="6"/>
-        <v>261.60000000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>435.4</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>33</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>125</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E10">
+        <f t="shared" ca="1" si="3"/>
+        <v>248.05999999999997</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="J10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>201.60000000000002</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="J10" s="10">
-        <f ca="1">((B10+C10)*(D10+1))-(G10+H10)</f>
-        <v>135.60000000000002</v>
+        <v>199.05999999999997</v>
       </c>
       <c r="K10" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>188</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>129</v>
       </c>
       <c r="M10" s="2" t="b">
-        <f ca="1">J10&gt;(K10/2.4)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="N10">
-        <f t="shared" ca="1" si="6"/>
-        <v>337.20000000000005</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>447.11999999999995</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72</v>
+        <v>0.99</v>
       </c>
       <c r="E11">
+        <f t="shared" ca="1" si="3"/>
+        <v>105.47</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="J11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>98.039999999999992</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="H11" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="J11" s="10">
-        <f ca="1">((B11+C11)*(D11+1))-(G11+H11)</f>
-        <v>49.039999999999992</v>
+        <v>51.47</v>
       </c>
       <c r="K11" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>193</v>
       </c>
       <c r="M11" s="2" t="b">
-        <f ca="1">J11&gt;(K11/2.4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" ca="1" si="6"/>
-        <v>147.07999999999998</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>156.94</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>42</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="E12">
+        <f t="shared" ca="1" si="3"/>
+        <v>167.2</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="J12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>196.42</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="H12" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="J12" s="10">
-        <f ca="1">((B12+C12)*(D12+1))-(G12+H12)</f>
-        <v>146.41999999999999</v>
+        <v>70.199999999999989</v>
       </c>
       <c r="K12" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>172</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>40</v>
       </c>
       <c r="M12" s="2" t="b">
-        <f ca="1">J12&gt;(K12/2.4)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="N12">
-        <f t="shared" ca="1" si="6"/>
-        <v>342.84</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>237.39999999999998</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>147</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62</v>
+        <v>0.82</v>
       </c>
       <c r="E13">
+        <f t="shared" ca="1" si="3"/>
+        <v>176.54</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="J13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>289.98</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="H13" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="J13" s="10">
-        <f ca="1">((B13+C13)*(D13+1))-(G13+H13)</f>
-        <v>240.98000000000002</v>
+        <v>108.53999999999999</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>227</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>124</v>
       </c>
       <c r="M13" s="2" t="b">
-        <f ca="1">J13&gt;(K13/2.4)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="N13">
-        <f t="shared" ca="1" si="6"/>
-        <v>530.96</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>285.08</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>34</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="E14">
+        <f t="shared" ca="1" si="3"/>
+        <v>72.16</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="J14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>178.48</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="H14" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="J14" s="10">
-        <f ca="1">((B14+C14)*(D14+1))-(G14+H14)</f>
-        <v>115.47999999999999</v>
+        <v>27.159999999999997</v>
       </c>
       <c r="K14" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>66</v>
       </c>
       <c r="M14" s="2" t="b">
-        <f ca="1">J14&gt;(K14/2.4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" ca="1" si="6"/>
-        <v>293.95999999999998</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>99.32</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="E15">
+        <f t="shared" ca="1" si="3"/>
+        <v>161.28</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>226.54999999999998</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="H15" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="J15" s="10">
-        <f ca="1">((B15+C15)*(D15+1))-(G15+H15)</f>
-        <v>170.54999999999998</v>
+        <v>111.28</v>
       </c>
       <c r="K15" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>217</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>50</v>
       </c>
       <c r="M15" s="2" t="b">
-        <f ca="1">J15&gt;(K15/2.4)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="N15">
-        <f t="shared" ca="1" si="6"/>
-        <v>397.09999999999997</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>272.56</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93</v>
+        <v>0.64</v>
       </c>
       <c r="E16">
+        <f t="shared" ca="1" si="3"/>
+        <v>142.68</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="J16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>266.34000000000003</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H16" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="J16" s="10">
-        <f ca="1">((B16+C16)*(D16+1))-(G16+H16)</f>
-        <v>228.34000000000003</v>
+        <v>94.68</v>
       </c>
       <c r="K16" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>177</v>
       </c>
       <c r="M16" s="2" t="b">
-        <f ca="1">J16&gt;(K16/2.4)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="N16">
-        <f t="shared" ca="1" si="6"/>
-        <v>494.68000000000006</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>237.36</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>17</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91</v>
+        <v>0.66</v>
       </c>
       <c r="E17">
+        <f t="shared" ca="1" si="3"/>
+        <v>46.480000000000004</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="J17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>290.32000000000005</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="H17" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="J17" s="10">
-        <f ca="1">((B17+C17)*(D17+1))-(G17+H17)</f>
-        <v>214.32000000000005</v>
+        <v>13.480000000000004</v>
       </c>
       <c r="K17" s="11">
-        <f t="shared" ca="1" si="5"/>
-        <v>182</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>238</v>
       </c>
       <c r="M17" s="2" t="b">
-        <f ca="1">J17&gt;(K17/2.4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" ca="1" si="6"/>
-        <v>504.6400000000001</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>59.960000000000008</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="C18" s="13">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="D18" s="14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84</v>
+        <v>0.48</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>248.39999999999998</v>
+        <f t="shared" si="3"/>
+        <v>642.31999999999994</v>
       </c>
       <c r="G18" s="15">
-        <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="H18" s="16">
-        <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="J18" s="17">
-        <f ca="1">((B18+C18)*(D18+1))-(G18+H18)</f>
-        <v>181.39999999999998</v>
+        <f t="shared" si="1"/>
+        <v>342.31999999999994</v>
       </c>
       <c r="K18" s="18">
-        <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>10000</v>
       </c>
       <c r="M18" s="3" t="b">
-        <f ca="1">J18&gt;(K18/2.4)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" ca="1" si="6"/>
-        <v>429.79999999999995</v>
+        <f t="shared" si="8"/>
+        <v>984.63999999999987</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
